--- a/public/reports/Regular Employees.xlsx
+++ b/public/reports/Regular Employees.xlsx
@@ -209,27 +209,27 @@
     <t>11-065</t>
   </si>
   <si>
+    <t>CANDELARIA, JAN MICO D.</t>
+  </si>
+  <si>
+    <t>SIP20-071</t>
+  </si>
+  <si>
+    <t>INST2</t>
+  </si>
+  <si>
+    <t>28,589.00</t>
+  </si>
+  <si>
     <t>CANDELARIA, ROMULO M.</t>
   </si>
   <si>
     <t>95-036</t>
   </si>
   <si>
-    <t>INST2</t>
-  </si>
-  <si>
     <t>30,547.00</t>
   </si>
   <si>
-    <t>CANDELARIA, JAN MICO D.</t>
-  </si>
-  <si>
-    <t>SIP20-071</t>
-  </si>
-  <si>
-    <t>28,589.00</t>
-  </si>
-  <si>
     <t>CASTUERA, ROWEL M.</t>
   </si>
   <si>
@@ -320,16 +320,16 @@
     <t>95-038</t>
   </si>
   <si>
+    <t>EVANGELIO, CARLOS N.</t>
+  </si>
+  <si>
+    <t>85-017</t>
+  </si>
+  <si>
     <t>EVANGELIO, CHARLES Z.</t>
   </si>
   <si>
     <t>SIP00267</t>
-  </si>
-  <si>
-    <t>EVANGELIO, CARLOS N.</t>
-  </si>
-  <si>
-    <t>85-017</t>
   </si>
   <si>
     <t>GABON, DENNIS C.</t>
@@ -2692,7 +2692,7 @@
         <v>66</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -2824,7 +2824,7 @@
         <v>66</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -3300,7 +3300,7 @@
         <v>66</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -4234,7 +4234,7 @@
         <v>231</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>

--- a/public/reports/Regular Employees.xlsx
+++ b/public/reports/Regular Employees.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
   <si>
     <t>P   A   Y   R   O   L   L</t>
   </si>
@@ -170,6 +170,9 @@
     <t>15-129</t>
   </si>
   <si>
+    <t>26,915.00</t>
+  </si>
+  <si>
     <t>BONITO, ANA MARIA A.</t>
   </si>
   <si>
@@ -368,10 +371,10 @@
     <t>97-043</t>
   </si>
   <si>
-    <t>NAVARROZA, MRYNA S.</t>
-  </si>
-  <si>
-    <t>94-039</t>
+    <t>NAVARROZA, MYRNA S.</t>
+  </si>
+  <si>
+    <t>94-030</t>
   </si>
   <si>
     <t>33,297.00</t>
@@ -572,6 +575,18 @@
     <t>15,192.00</t>
   </si>
   <si>
+    <t>CASULLA, ORLANDO E.</t>
+  </si>
+  <si>
+    <t>13-073</t>
+  </si>
+  <si>
+    <t>ADA2</t>
+  </si>
+  <si>
+    <t>13,087.00</t>
+  </si>
+  <si>
     <t>Casulla, Sonia M.</t>
   </si>
   <si>
@@ -582,18 +597,6 @@
   </si>
   <si>
     <t>13,781.00</t>
-  </si>
-  <si>
-    <t>CASULLA, ORLANDO E.</t>
-  </si>
-  <si>
-    <t>13-073</t>
-  </si>
-  <si>
-    <t>ADA2</t>
-  </si>
-  <si>
-    <t>13,087.00</t>
   </si>
   <si>
     <t>CORTEZANO, NELBERT R.</t>
@@ -1912,7 +1915,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -1920,10 +1923,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>38</v>
@@ -1937,16 +1940,16 @@
         <v>15</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -1954,16 +1957,16 @@
         <v>16</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -1971,10 +1974,10 @@
         <v>17</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>13</v>
@@ -1988,16 +1991,16 @@
         <v>18</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2005,16 +2008,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2022,21 +2025,21 @@
         <v>20</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -2044,44 +2047,44 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="34"/>
       <c r="E33" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="34"/>
       <c r="K33" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
       <c r="O33" s="34"/>
       <c r="P33" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R33" s="32"/>
       <c r="S33" s="32"/>
       <c r="T33" s="32"/>
       <c r="U33" s="34"/>
       <c r="V33" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
@@ -2111,7 +2114,7 @@
       <c r="T34"/>
       <c r="U34" s="35"/>
       <c r="V34" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W34"/>
       <c r="X34" s="27"/>
@@ -2141,7 +2144,7 @@
       <c r="T35"/>
       <c r="U35" s="35"/>
       <c r="V35" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W35"/>
       <c r="X35" s="27"/>
@@ -2171,7 +2174,7 @@
       <c r="T36"/>
       <c r="U36" s="35"/>
       <c r="V36" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W36"/>
       <c r="X36" s="27"/>
@@ -2201,7 +2204,7 @@
       <c r="T37" s="33"/>
       <c r="U37" s="36"/>
       <c r="V37" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W37" s="33"/>
       <c r="X37" s="33"/>
@@ -2232,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -2278,10 +2281,10 @@
         <v>21</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" s="21" t="s">
         <v>25</v>
@@ -2295,16 +2298,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:26">
@@ -2312,10 +2315,10 @@
         <v>23</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>38</v>
@@ -2329,16 +2332,16 @@
         <v>24</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:26">
@@ -2346,16 +2349,16 @@
         <v>25</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:26">
@@ -2363,16 +2366,16 @@
         <v>26</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:26">
@@ -2380,10 +2383,10 @@
         <v>27</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>21</v>
@@ -2397,16 +2400,16 @@
         <v>28</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:26">
@@ -2414,16 +2417,16 @@
         <v>29</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:26">
@@ -2431,16 +2434,16 @@
         <v>30</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>44</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:26">
@@ -2448,10 +2451,10 @@
         <v>31</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>13</v>
@@ -2465,10 +2468,10 @@
         <v>32</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>13</v>
@@ -2482,16 +2485,16 @@
         <v>33</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:26">
@@ -2499,16 +2502,16 @@
         <v>34</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:26">
@@ -2516,16 +2519,16 @@
         <v>35</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:26">
@@ -2533,10 +2536,10 @@
         <v>36</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>38</v>
@@ -2550,10 +2553,10 @@
         <v>37</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>44</v>
@@ -2567,16 +2570,16 @@
         <v>38</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:26">
@@ -2584,16 +2587,16 @@
         <v>39</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:26">
@@ -2601,10 +2604,10 @@
         <v>40</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D68" s="23" t="s">
         <v>21</v>
@@ -2615,7 +2618,7 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -2623,44 +2626,44 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70" s="32"/>
       <c r="D70" s="34"/>
       <c r="E70" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
       <c r="I70" s="32"/>
       <c r="J70" s="34"/>
       <c r="K70" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L70" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M70" s="32"/>
       <c r="N70" s="32"/>
       <c r="O70" s="34"/>
       <c r="P70" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q70" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R70" s="32"/>
       <c r="S70" s="32"/>
       <c r="T70" s="32"/>
       <c r="U70" s="34"/>
       <c r="V70" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W70" s="32"/>
       <c r="X70" s="32"/>
@@ -2690,7 +2693,7 @@
       <c r="T71"/>
       <c r="U71" s="35"/>
       <c r="V71" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W71"/>
       <c r="X71" s="27"/>
@@ -2720,7 +2723,7 @@
       <c r="T72"/>
       <c r="U72" s="35"/>
       <c r="V72" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W72"/>
       <c r="X72" s="27"/>
@@ -2750,7 +2753,7 @@
       <c r="T73"/>
       <c r="U73" s="35"/>
       <c r="V73" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W73"/>
       <c r="X73" s="27"/>
@@ -2780,7 +2783,7 @@
       <c r="T74" s="33"/>
       <c r="U74" s="36"/>
       <c r="V74" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W74" s="33"/>
       <c r="X74" s="33"/>
@@ -2811,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -2857,16 +2860,16 @@
         <v>41</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:26">
@@ -2874,10 +2877,10 @@
         <v>42</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>13</v>
@@ -2891,16 +2894,16 @@
         <v>43</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:26">
@@ -2908,16 +2911,16 @@
         <v>44</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:26">
@@ -2925,16 +2928,16 @@
         <v>45</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:26">
@@ -2942,10 +2945,10 @@
         <v>46</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>21</v>
@@ -2959,10 +2962,10 @@
         <v>47</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>21</v>
@@ -2976,16 +2979,16 @@
         <v>48</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:26">
@@ -2993,16 +2996,16 @@
         <v>49</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:26">
@@ -3010,16 +3013,16 @@
         <v>50</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D95" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:26">
@@ -3027,10 +3030,10 @@
         <v>51</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>21</v>
@@ -3044,16 +3047,16 @@
         <v>52</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:26">
@@ -3061,16 +3064,16 @@
         <v>53</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:26">
@@ -3078,16 +3081,16 @@
         <v>54</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:26">
@@ -3095,16 +3098,16 @@
         <v>55</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:26">
@@ -3112,16 +3115,16 @@
         <v>56</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:26">
@@ -3129,16 +3132,16 @@
         <v>57</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:26">
@@ -3146,16 +3149,16 @@
         <v>58</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:26">
@@ -3163,16 +3166,16 @@
         <v>59</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:26">
@@ -3180,21 +3183,21 @@
         <v>60</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
@@ -3202,44 +3205,44 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C107" s="32"/>
       <c r="D107" s="34"/>
       <c r="E107" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G107" s="32"/>
       <c r="H107" s="32"/>
       <c r="I107" s="32"/>
       <c r="J107" s="34"/>
       <c r="K107" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L107" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M107" s="32"/>
       <c r="N107" s="32"/>
       <c r="O107" s="34"/>
       <c r="P107" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q107" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R107" s="32"/>
       <c r="S107" s="32"/>
       <c r="T107" s="32"/>
       <c r="U107" s="34"/>
       <c r="V107" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W107" s="32"/>
       <c r="X107" s="32"/>
@@ -3269,7 +3272,7 @@
       <c r="T108"/>
       <c r="U108" s="35"/>
       <c r="V108" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W108"/>
       <c r="X108" s="27"/>
@@ -3299,7 +3302,7 @@
       <c r="T109"/>
       <c r="U109" s="35"/>
       <c r="V109" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W109"/>
       <c r="X109" s="27"/>
@@ -3329,7 +3332,7 @@
       <c r="T110"/>
       <c r="U110" s="35"/>
       <c r="V110" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W110"/>
       <c r="X110" s="27"/>
@@ -3359,7 +3362,7 @@
       <c r="T111" s="33"/>
       <c r="U111" s="36"/>
       <c r="V111" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W111" s="33"/>
       <c r="X111" s="33"/>
@@ -3390,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:26">
@@ -3436,13 +3439,13 @@
         <v>61</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>22</v>
@@ -3453,16 +3456,16 @@
         <v>62</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="125" spans="1:26">
@@ -3470,16 +3473,16 @@
         <v>63</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="126" spans="1:26">
@@ -3487,7 +3490,7 @@
         <v>64</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="22"/>
@@ -3498,16 +3501,16 @@
         <v>65</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:26">
@@ -3515,16 +3518,16 @@
         <v>66</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:26">
@@ -3532,16 +3535,16 @@
         <v>67</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:26">
@@ -3549,16 +3552,16 @@
         <v>68</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:26">
@@ -3566,16 +3569,16 @@
         <v>69</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:26">
@@ -3583,16 +3586,16 @@
         <v>70</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:26">
@@ -3600,16 +3603,16 @@
         <v>71</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:26">
@@ -3617,16 +3620,16 @@
         <v>72</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D134" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:26">
@@ -3634,16 +3637,16 @@
         <v>73</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="136" spans="1:26">
@@ -3651,16 +3654,16 @@
         <v>74</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:26">
@@ -3668,16 +3671,16 @@
         <v>75</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:26">
@@ -3685,16 +3688,16 @@
         <v>76</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:26">
@@ -3702,16 +3705,16 @@
         <v>77</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:26">
@@ -3719,16 +3722,16 @@
         <v>78</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:26">
@@ -3736,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D141" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:26">
@@ -3753,21 +3756,21 @@
         <v>80</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
@@ -3775,44 +3778,44 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C144" s="32"/>
       <c r="D144" s="34"/>
       <c r="E144" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F144" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G144" s="32"/>
       <c r="H144" s="32"/>
       <c r="I144" s="32"/>
       <c r="J144" s="34"/>
       <c r="K144" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L144" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M144" s="32"/>
       <c r="N144" s="32"/>
       <c r="O144" s="34"/>
       <c r="P144" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q144" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R144" s="32"/>
       <c r="S144" s="32"/>
       <c r="T144" s="32"/>
       <c r="U144" s="34"/>
       <c r="V144" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W144" s="32"/>
       <c r="X144" s="32"/>
@@ -3842,7 +3845,7 @@
       <c r="T145"/>
       <c r="U145" s="35"/>
       <c r="V145" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W145"/>
       <c r="X145" s="27"/>
@@ -3872,7 +3875,7 @@
       <c r="T146"/>
       <c r="U146" s="35"/>
       <c r="V146" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W146"/>
       <c r="X146" s="27"/>
@@ -3902,7 +3905,7 @@
       <c r="T147"/>
       <c r="U147" s="35"/>
       <c r="V147" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W147"/>
       <c r="X147" s="27"/>
@@ -3932,7 +3935,7 @@
       <c r="T148" s="33"/>
       <c r="U148" s="36"/>
       <c r="V148" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W148" s="33"/>
       <c r="X148" s="33"/>
@@ -3963,7 +3966,7 @@
         <v>4</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="154" spans="1:26">
@@ -4009,16 +4012,16 @@
         <v>81</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D160" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="161" spans="1:26">
@@ -4026,16 +4029,16 @@
         <v>82</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:26">
@@ -4043,16 +4046,16 @@
         <v>83</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:26">
@@ -4060,16 +4063,16 @@
         <v>84</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D163" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" spans="1:26">
@@ -4077,16 +4080,16 @@
         <v>85</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D164" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="165" spans="1:26">
@@ -4094,16 +4097,16 @@
         <v>86</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="166" spans="1:26">
@@ -4111,16 +4114,16 @@
         <v>87</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="1:26">
@@ -4128,16 +4131,16 @@
         <v>88</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D167" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:26">
@@ -4145,16 +4148,16 @@
         <v>89</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D168" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="169" spans="1:26">
@@ -4162,16 +4165,16 @@
         <v>90</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D169" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="170" spans="1:26">
@@ -4179,21 +4182,21 @@
         <v>91</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D170" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:26">
       <c r="A171" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
@@ -4201,7 +4204,7 @@
     </row>
     <row r="172" spans="1:26">
       <c r="A172" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B172" s="25"/>
       <c r="C172" s="25"/>
@@ -4209,44 +4212,44 @@
     </row>
     <row r="173" spans="1:26">
       <c r="A173" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B173" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C173" s="32"/>
       <c r="D173" s="34"/>
       <c r="E173" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F173" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G173" s="32"/>
       <c r="H173" s="32"/>
       <c r="I173" s="32"/>
       <c r="J173" s="34"/>
       <c r="K173" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L173" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M173" s="32"/>
       <c r="N173" s="32"/>
       <c r="O173" s="34"/>
       <c r="P173" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q173" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R173" s="32"/>
       <c r="S173" s="32"/>
       <c r="T173" s="32"/>
       <c r="U173" s="34"/>
       <c r="V173" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W173" s="32"/>
       <c r="X173" s="32"/>
@@ -4276,7 +4279,7 @@
       <c r="T174"/>
       <c r="U174" s="35"/>
       <c r="V174" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W174"/>
       <c r="X174" s="27"/>
@@ -4306,7 +4309,7 @@
       <c r="T175"/>
       <c r="U175" s="35"/>
       <c r="V175" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W175"/>
       <c r="X175" s="27"/>
@@ -4336,7 +4339,7 @@
       <c r="T176"/>
       <c r="U176" s="35"/>
       <c r="V176" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W176"/>
       <c r="X176" s="27"/>
@@ -4366,7 +4369,7 @@
       <c r="T177" s="33"/>
       <c r="U177" s="36"/>
       <c r="V177" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W177" s="33"/>
       <c r="X177" s="33"/>
